--- a/Test_Results/Test_Results_2/tri_results.xlsx
+++ b/Test_Results/Test_Results_2/tri_results.xlsx
@@ -464,22 +464,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(0.60025,0.30416)</t>
+          <t>(32536.95729,32868.77145)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.03081</t>
+          <t>-4067044.66085</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-0.83227</t>
+          <t>-6573694.2909</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(0.72604,0.23546)</t>
+          <t>(0.3082,0.27783)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(0.69018,0.20049)</t>
+          <t>(0.30945,0.27272)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.48257</t>
+          <t>-0.1559</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.99269</t>
+          <t>1.02215</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -519,27 +519,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(0.00653,0.41335)</t>
+          <t>(0.05246,0.01999)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(0.02931,0.38041)</t>
+          <t>(0.05343,-2e-05)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-2.84700</t>
+          <t>-0.12176</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.58855</t>
+          <t>4.00208</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -549,22 +549,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(0.49241,0.00485)</t>
+          <t>(0.39949,0.19011)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(-10.0000000000000,-10.0000000000000)</t>
+          <t>(0.39937,-0.06933)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1311.55072</t>
+          <t>0.01468</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2000.96906</t>
+          <t>51.8881</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -579,27 +579,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(0.55894,0.38344)</t>
+          <t>(0.78175,0.31904)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(0.55196,0.36849)</t>
+          <t>(2113877597.61496,1424524248.54673)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.87249</t>
+          <t>-264234699604.151</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.99055</t>
+          <t>-284904849645.5389</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(0.57862,0.17955)</t>
+          <t>(0.2981,0.47984)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(0.57813,0.18711)</t>
+          <t>(0.29489,0.47671)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.06199</t>
+          <t>0.40066</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-1.51100</t>
+          <t>0.62517</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -639,27 +639,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(0.51501,0.04402)</t>
+          <t>(0.50199,0.23276)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(0.51684,0.05109)</t>
+          <t>(52009.71262,63261.82058)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-0.22895</t>
+          <t>-6501151.32836</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-1.41550</t>
+          <t>-12652317.56278</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -669,27 +669,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(0.69532,0.13022)</t>
+          <t>(0.52727,0.4496)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(0.71595,0.13192)</t>
+          <t>(1.08143,1.41821)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-2.57864</t>
+          <t>-69.26966</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-0.34023</t>
+          <t>-193.72171</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -699,27 +699,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(0.69676,0.19372)</t>
+          <t>(0.72516,0.45098)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(0.70751,0.19323)</t>
+          <t>(138703.61521,138089.69658)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-1.34348</t>
+          <t>-17337861.25595</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.09755</t>
+          <t>-27617849.11903</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -729,27 +729,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(0.08595,0.10227)</t>
+          <t>(0.56015,0.14296)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(0.08381,0.10851)</t>
+          <t>(30325065.49979,20431960.68204)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.26729</t>
+          <t>-3790633117.45519</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-1.24781</t>
+          <t>-4086392107.81594</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
